--- a/Terminplan.xlsx
+++ b/Terminplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15400" yWindow="0" windowWidth="15680" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="1540" yWindow="540" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="60">
   <si>
     <t>Design</t>
   </si>
@@ -126,12 +126,6 @@
     <t>Recap</t>
   </si>
   <si>
-    <t>Tennis</t>
-  </si>
-  <si>
-    <t>Requirements Engineerin / Research</t>
-  </si>
-  <si>
     <t>Research / reading</t>
   </si>
   <si>
@@ -262,6 +256,9 @@
   </si>
   <si>
     <t>Presentation (Date to come)</t>
+  </si>
+  <si>
+    <t>Wordpress setup</t>
   </si>
 </sst>
 </file>
@@ -386,8 +383,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -540,7 +543,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="141">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -608,6 +611,9 @@
     <cellStyle name="Besuchter Link" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -675,6 +681,9 @@
     <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1007,7 +1016,7 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1019,6 +1028,7 @@
     <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1027,12 +1037,12 @@
         <v>1</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -1056,10 +1066,10 @@
         <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1088,45 +1098,45 @@
         <v>42058</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>11</v>
@@ -1135,13 +1145,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>12</v>
@@ -1150,15 +1160,15 @@
         <v>12</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -1182,10 +1192,10 @@
         <v>9</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1214,47 +1224,47 @@
         <v>42064</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>11</v>
@@ -1263,10 +1273,10 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
@@ -1278,15 +1288,15 @@
         <v>12</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
@@ -1310,10 +1320,10 @@
         <v>9</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1342,18 +1352,18 @@
         <v>42071</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>11</v>
@@ -1374,15 +1384,15 @@
         <v>12</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>11</v>
@@ -1408,7 +1418,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
@@ -1460,7 +1470,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>14</v>
@@ -1469,13 +1479,13 @@
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>12</v>
@@ -1486,7 +1496,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>11</v>
@@ -1495,13 +1505,13 @@
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>12</v>
@@ -1512,7 +1522,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
@@ -1564,7 +1574,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1573,13 +1583,13 @@
         <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>12</v>
@@ -1590,7 +1600,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>11</v>
@@ -1599,13 +1609,13 @@
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>12</v>
@@ -1616,7 +1626,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
@@ -1668,22 +1678,22 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>12</v>
@@ -1694,7 +1704,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>11</v>
@@ -1703,13 +1713,13 @@
         <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>12</v>
@@ -1720,7 +1730,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>3</v>
@@ -1772,7 +1782,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>14</v>
@@ -1781,13 +1791,13 @@
         <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>12</v>
@@ -1798,7 +1808,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>11</v>
@@ -1807,13 +1817,13 @@
         <v>11</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>12</v>
@@ -1824,7 +1834,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>3</v>
@@ -1876,22 +1886,22 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>12</v>
@@ -1902,7 +1912,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>11</v>
@@ -1911,13 +1921,13 @@
         <v>11</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>12</v>
@@ -1928,7 +1938,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>3</v>
@@ -1980,22 +1990,22 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>12</v>
@@ -2006,7 +2016,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>11</v>
@@ -2015,13 +2025,13 @@
         <v>11</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>12</v>
@@ -2032,7 +2042,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>3</v>
@@ -2084,7 +2094,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>14</v>
@@ -2093,13 +2103,13 @@
         <v>11</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>12</v>
@@ -2110,7 +2120,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>11</v>
@@ -2119,13 +2129,13 @@
         <v>11</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>12</v>
@@ -2136,7 +2146,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>3</v>
@@ -2188,7 +2198,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -2197,13 +2207,13 @@
         <v>11</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>12</v>
@@ -2214,7 +2224,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>11</v>
@@ -2223,13 +2233,13 @@
         <v>11</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>12</v>
@@ -2240,7 +2250,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>3</v>
@@ -2292,7 +2302,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>14</v>
@@ -2301,13 +2311,13 @@
         <v>11</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>12</v>
@@ -2318,7 +2328,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>11</v>
@@ -2327,13 +2337,13 @@
         <v>11</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>12</v>
@@ -2344,7 +2354,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>3</v>
@@ -2396,7 +2406,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>14</v>
@@ -2405,13 +2415,13 @@
         <v>11</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>12</v>
@@ -2422,7 +2432,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>11</v>
@@ -2431,13 +2441,13 @@
         <v>11</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>12</v>
@@ -2448,7 +2458,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>3</v>
@@ -2500,7 +2510,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>10</v>
@@ -2509,13 +2519,13 @@
         <v>11</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>12</v>
@@ -2526,7 +2536,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>11</v>
@@ -2535,13 +2545,13 @@
         <v>11</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>12</v>
@@ -2552,7 +2562,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>3</v>
@@ -2604,22 +2614,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>12</v>
@@ -2630,7 +2640,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>11</v>
@@ -2639,13 +2649,13 @@
         <v>11</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>12</v>
@@ -2656,7 +2666,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>3</v>
@@ -2708,20 +2718,20 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>12</v>
@@ -2732,7 +2742,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>11</v>
@@ -2741,13 +2751,13 @@
         <v>11</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>12</v>
